--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -266,13 +266,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -280,7 +273,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
@@ -288,11 +280,141 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -328,6 +450,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
@@ -335,142 +458,19 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,14 +486,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:E30"/>
   <tableColumns count="5">
-    <tableColumn id="4" name="Specification " dataDxfId="8"/>
-    <tableColumn id="6" name="Part number" dataDxfId="7"/>
-    <tableColumn id="7" name="Number" dataDxfId="6"/>
-    <tableColumn id="8" name="Price rub per one" dataDxfId="5"/>
-    <tableColumn id="9" name="Total rub" dataDxfId="4"/>
+    <tableColumn id="4" name="Specification " dataDxfId="4"/>
+    <tableColumn id="6" name="Part number" dataDxfId="3"/>
+    <tableColumn id="7" name="Number" dataDxfId="2"/>
+    <tableColumn id="8" name="Price rub per one" dataDxfId="1"/>
+    <tableColumn id="9" name="Total rub" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -765,7 +765,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
